--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -720,22 +720,22 @@
         <v>5567</v>
       </c>
       <c r="V9" t="str">
-        <v>Akshaya</v>
+        <v>jeowowi</v>
       </c>
       <c r="W9" t="str">
-        <v>2025-07-20</v>
+        <v>2025-07-30</v>
       </c>
       <c r="X9" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACWCAYAAADwkd5lAAAAAXNSR0IArs4c6QAADhxJREFUeF7t3UnMNdkYB/CntaF1o81TujthYViIkJhCJOiwJSIRQtIbWxsbCZEgkUis7GwQ04JgZUHSWGAhhliIWBBzzN3oNg/v6b6VHOerurfuObeGe+v3bvj6q3PqnN9Tb/2/mq8LPwQIECBAoELguoo2mhAgQIAAgRAgNgICBAgQqBIQIFVsGhEgQICAALENECBAgECVgACpYtOIAAECBASIbYAAAQIEqgQESBWbRgQIECAgQGwDBAgQIFAlIECq2DQiQIAAAQFiGyBAgACBKgEBUsWmEQECBAgIENsAAQIECFQJCJAqNo0IECBAQIDYBggQIECgSkCAVLFpRIAAAQICxDZAgAABAlUCAqSKTSMCBAgQECC2AQIECBCoEhAgVWwaESBAgIAAsQ0QIECAQJWAAKli04gAAQIEBIhtgAABAgSqBARIFZtGBAgQICBAbAMECBAgUCUgQKrYNCJAgAABAWIbIECAAIEqAQFSxaYRAQIECAgQ2wABAgQIVAkIkCo2jQgQIEBAgNgGCBAgQKBKQIBUsWlEgAABAgLENkCAAAECVQICpIpNIwIECBAQILYBAgQIEKgSECBVbBoRIECAgACxDRAgQIBAlYAAqWLTiAABAgQEyHa2gdftpvrp7UzZTAkQmFJAgEypu66+/7sbjpqvqy5GQ+BsBexMzrZ0Rw38rxFxgwA5yszCBAgcEBAg29hE/hMRXa3VfBs1N0sCkwvYmUxOvIoVdKev0mDUfBUlMQgC5y9gZ3L+NTw0g7si4uZsITU/JObvCRAYJWBnMorprBfKT185AjnrUho8gXUJCJB11WOK0QiQKVT1SYCA8+Eb2Aby6x+OQDZQcFMkMJeAI5C5pJdbjwBZzt6aCVy0gAC56PLG3RHxiGKKan7ZNTc7ArMJ2JnMRr3Iiv4dEQ8QIIvYWymBixcQIJdd4vICumsgl11vsyMwq4AAmZV79pV11z/S/3oSfXZ+KyRw2QIC5LLr2wVIOhLpTmWp+WXX3OwIzCZgZzIb9ewruicibtyt9X0R8fbd/5+75vldYOn/l9dkZoexQgIETiMw987kNKPWyxiB8gWKS73OvbyNOI39ZxFx25hJWIYAgfUKCJD11qZ1ZOULFNcUIGlujkZaK6w9gYUFBMjCBZhw9fn1j+t3O+y0urlrngfXRyPizdmc03Mqj5zQQNcECEwoMPfOZMKp6DoT+FdEpNBIP4+JiD+sIEDujIhX7Mbk9fI2VwIXICBALqCIPVPo+4DU0qew/hIRD9+N9Y/ZkUd63fyjLrMMZkXgsgUEyGXWN3/+o7vraekASaHWHRUldUchl7ntmdWGBATI5RX71oj46W5a6VTWg4rTRnPXvC/M0pD+lB2RzD2my6u6GRFYQMAv7gLoE69y6PvnSx+B9N11tdSYJi6B7glsQ0CAXF6dh04NLbWzHjoCyU9j2Q4vbzs0ow0I+MW9jCL3vfOq/Be/ALmMWpsFgdUICJDVlKJpIH1Pe98bETdlvS4VIEOn1ByBNJVcYwLLCwiQ5WtwihH0BcgvIuIWAXIKXn0QINAnIEAuY7voC5A0s/zWWUcgl1FrsyCwGgEBsppSNA1kKEC600TpWRAB0kSsMQECpYAAOf9t4ksRcXsxjedFxDcHpjZ3zfPP6ubr/kn2Rt65x3T+VTcDAisQ8Iu7giI0DmHfd8/X8EnbP0fEw3ZzzLc3T6I3Fl5zAksLCJClK9C+/jIkytt3y4D5QES8rX21o3v4RkS8sAiQ9Abe9D6s/BTb6A4tSIDAOgQEyDrq0DKK8vpH+c6p1Hd6tUl6xUn3M/e3OMrrL/tu7W2x0JYAgRkFBMiM2BOtqgyQoZr2XWh/eUR8eaJx5d2WAeL01QzoVkFgagEBMrXwtP3n3/3o1nQoQNLOO19mjs/L5gHyuYh49W6wv4+Ix05LpHcCBKYSECBTyc7Tb3lUse/UVL4TL6+L9J32OuUM8nU7fXVKWX0RWFBAgByP33dnU35t4Z8R8ZDjuz26xS8j4klFq/yjTWWH5WmkOa+L5Ove93LFoxE0IEBgOQEBMt5+X3AM9TLlv+yPvUV36EHCsddQxktdu2S3jr9n4XpHRHykpVNtCRBYVkCA7Pf/QUQ8rbhmUFuxU9/51HdRfF899z2JXobRqa+LHDvWWmPtCBCYUUCA9GP/KiKe0BMcY44o0mmkGw+ETtqh/iYinlhZ676jj0MBdehVJlNeFykDJJ3me3Dl3DUjQGAlAgLk2kL07ZzHBEdfSb8WES8aESZp5919enbMptH3L/p3RsR79zQ+FCCp6VTXReY4TTbGzTIECJxQQIAMn69Pf1MbHEMlGnMd5VBN8iOF/JbcQ+3GBEg37nyHf+jIZszmeOr+xqzTMgQITCxwaKcz8epX2f0xO9qWCfS9w6rrb8y1jHzdY3byx86rDLuWbSUPkM9HxGta4LQlQGAdAi07hXXM4PSjOHZHe4oRpAcC0yvX83r01SbfqafrCN1przFHSjXzKkPkixHxqiMnnPcxJuiO7N7iBAgsJSBAhk9hpSOEB85cmHKHfXdEpBcPpp/y1FX6b139xtSxJkDK9aY/35O9XfcQTwq53HDMOA/16e8JEFiJgF/o4QDJd9Bzlqs8tZWOTlKdrs8Gkf6cnxYaU8faAEmrTXeW5d9XHxOud0XEzQXcmHHOaW1dBAg0CPiFvhYv/1fzmB1lA/9g0753XHULdzU79onulgBJ6/5qRLw0G3F3OupbEfHsXcglu3/sTq3d0DM729sUW4s+CSwk4Be6H/7Yf91PUb701Hb5rMTvIuJxxemsfa8vycfVGiCpr9dGxGcmmGwaWwrN7199J+Stu7CaYDW6JEDglAICpF8zPwpZ6sLvZ3vuVurGUhNwNQHyrt3Hp7ovCp5y2xvTV/ro1KPHLGgZAgTmFxAgw+ZL3j005nmRNPL0PfRXjtxsxgRIevDx+ZU3D6R3W304G8t3I+I5uz93607zGvpJd6H1/aQjk29HxAtGztNiBAjMJCBA9kOXIZL+POWdWX3XPvqOOtKojz0y6guQ9MqV9M3yoZ13rpNOlb3n6jUt78/+41DQlUcOY8Kr6/YlEfHBiHhWceNAer1M+vjVJ65C7gsz/X5YDQECewQEyOHNY2gnmXaKd0bE7Ye7OLhE3+mq1Cj/V3wXGnlnb4qIjx/s/f4Fyp34vgcZ07LpXV2vj4ivHOi/7Kcv2Lp1p+s6fRfXh1bx44h4cnEt6NcN7xAbSWUxAgTGCAiQMUr//wxGX4u0g6w9OukLqL67v4Z2+J+MiDeOmEa3E09HOeVRVBrDDyPimSP66RZ5x9WRy7sH3vNVPth47B1j5TDSEcdtEfGdiPhYRKQHGv0QILCwgAA5vgB9T42XvaQdZrrt9WV7ut93umoopLr/nvrPa3dv8ZzGofbd3/88Im49kmAoOMox5UcirQFy5BAtToDAHAICpE053Xb6jBN9L+R7u+cp+kaUH6V8/eri+YuLW3lTm/T8xdCXENN3TZ6edZxODT31yKnvC478Gkp+h1jLXWNHDs/iBAjMLSBATiu+77rC0JoOvccqvTokXexOP+X1hfIoZujBx5rbfrvxjg2OfH5liKS/O+a1K6etit4IEJhEQIBMwnpfp+mIIF1rGDIeexfVoZ1/+b6pMpBq36pbExy55tDNB7a56bY5PROYVcAv86zcVSvrAmTfa1X+Vpy+ykMkD6D8SGBoMK3BcShEbHNVm4FGBNYn4Jd5fTUpRzT2GYr0HfNbssZDz48M1fyUwbEvRGxz69/mjJDAKAG/zKOYFl1obICkQT43ItLLDbuf8s6oYyYy9hTbmD7z01mfurpl+A1jGlmGAIF1CwiQddcnje6YAMmDo3ZmpwyO2jFoR4DAGQgIkPUXqSZA8uAZO0PBMVbKcgQI3CcgQNa/IdQGSBki+eksdV9/3Y2QwOoF7EhWX6KqU1jdrJ4SET/qmeLjI+K365+6ERIgsGYBAbLm6tw/tpYjkNS+fE6k63PMG3jXr2OEBAgsJiBAFqMfveLuGxotO/y+h/rUfnQJLEiAQJ+Anch2totjHyjcjoyZEiBQJSBAqtjOslF6Y+9Ds5Hve7L9LCdo0AQIzCsgQOb1Xnpt+cse3ba7dDWsn8CZCwiQMy9gxfAPvZyxoktNCBDYooAA2V7V07fNb9pN21HI9upvxgROJiBATkZ5Vh05CjmrchksgXUKCJB11mXqUeUforINTK2tfwIXKmDncaGFHTGt1gcUR6zCIgQIXLKAALnk6u6f21t2f/2h7RKYOQECLQICpEVPWwIECGxYQIBsuPimToAAgRYBAdKipy0BAgQ2LCBANlx8UydAgECLgABp0dOWAAECGxYQIBsuvqkTIECgRUCAtOhpS4AAgQ0LCJANF9/UCRAg0CIgQFr0tCVAgMCGBQTIhotv6gQIEGgRECAtetoSIEBgwwICZMPFN3UCBAi0CAiQFj1tCRAgsGEBAbLh4ps6AQIEWgQESIuetgQIENiwgADZcPFNnQABAi0CAqRFT1sCBAhsWECAbLj4pk6AAIEWAQHSoqctAQIENiwgQDZcfFMnQIBAi4AAadHTlgABAhsWECAbLr6pEyBAoEVAgLToaUuAAIENCwiQDRff1AkQINAiIEBa9LQlQIDAhgUEyIaLb+oECBBoERAgLXraEiBAYMMCAmTDxTd1AgQItAgIkBY9bQkQILBhAQGy4eKbOgECBFoEBEiLnrYECBDYsIAA2XDxTZ0AAQItAgKkRU9bAgQIbFhAgGy4+KZOgACBFgEB0qKnLQECBDYsIEA2XHxTJ0CAQIvA/wDK6KmmHufiYQAAAABJRU5ErkJggg==</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACWCAYAAADwkd5lAAAAAXNSR0IArs4c6QAADnhJREFUeF7tnWvIN0UZhy/zrK+aJ9RSCMooIvIQFJRlEEkZBEVSgRVWRAfEkOyDoR2gMCSJCiIKgywRqg9SJvbFDkSRJyICjYpMQw1NfTU17fAM7ML08Lzv+9/Zmd2Z3WtBEJ+de373dY/z+88eZvfDQwISkIAEJJBAYL+ENjaRgAQkIAEJoIE4CCQgAQlIIImABpKEzUYSkIAEJKCBOAYkIAEJSCCJgAaShM1GEpCABCSggTgGJCABCUggiYAGkoTNRhKQgAQkoIE4BiQgAQlIIImABpKEzUYSkIAEJKCBOAYkIAEJSCCJgAaShM1GEpCABCSggTgGJCABCUggiYAGkoTNRhKQgAQkoIE4BiQgAQlIIImABpKEzUYSkIAEJKCBOAYkIAEJSCCJgAaShM1GEpCABCSggTgGJCABCUggiYAGkoTNRhKQgAQkoIE4BiQgAQlIIImABpKEzUYSkIAEJKCBOAYkIIEpCdwDPAfY09zzX+BZUwqyr3QCGkg6O1tKQAKbEwjGsOnhvLQpqZnPs1AzF8DuJbACAkPMI+BwXmpkUFioRgqlTAk0SiA2j78Az9tLHv25zwAHNprvqmRrIKsqt8lKYFICsXncB5y0j97j852bJi1VWmcWKY2brSQggb0T+E90KepxYNcGwOI2zk0bAJv7FIs0dwXsXwLLI/Dv6EmqIZej4nbOTQ2MC4vUQJGUKIGGCDwNHNDpDSuK/Qdo10AGwKrhVA2khiqoQQLLILA7ulSV8j6HBtLYONBAGiuYciVQKYFwk/yESFvK3KKBVFrcPclKKXJjKSpXAhIoTOBO4IUjzSM09yZ64ULlDq+B5CZqPAmsi8BPgNdHKR8LPJSA4Bjgwa5dyuWvhC5tMpaABjKWoO0lsF4CVwIXR+mfAdyeiCNefZwM3JsYx2YTEtBAJoRtVxJYEIH3bL1V/q0on7cD30vM7/vAW119JNKbsZkGMiN8u5ZAwwTit8a/vHXZ6sIRuXjvYwS8OZtqIHPSt28JtEkgNo8bgHNHpuEWJiMBztVcA5mLvP1KoE0CjwBHdtIfBY4amcafow0Ww2O8/UuII8PafAoCGsgUlO1DAnkIXA+8uQs1x0eXPgVcHqWSY/7w8lWesTFLlBwDYBbhdiqBFRKYe7Itcampj+mjuw0OaA2kwaIpebUE5jSQuO9bgZdnqEJ8+WrIposZujZEDgIaSA6KxpDANATmMpDwbsdpXYpDN0jcG5m58pmmWivoRQNZQZFNcTEE5ppwS1y6CkXx8lXjQ1MDabyAyl8VgTkMJDaPS4HPZSLu5atMIOcMo4HMSd++JTCMwNQG8gBwfCfxYeDoYXL3enapVU1GiYbaFwENZF+E/LsE6iEwpYG8A7g2Sj3nXPFP4NAutk9f1TO+BivJOSgGd24DCUhgEIEpDaTkCqFk7EFAPXkcAQ1kHD9bS2BKAvEv95L/7z4BHNIl9gvgrIxJxib4GHBExtiGmphAyUE4cSp2J4FVEOh/vefYRmQnYGFjxI92f8j5yG4I+SPgTV66Ws441UCWU0szWQeB0o++lry8FMd+LvC3dZRsuVlqIMutrZktk0BJAwmXlA7vsH0C+EJGhP8CDiy0ssko01BDCGggQ2h5rgTmJzDFCuFxYFfmVEvqzizVcJsS0EA2JeV5EqiDQKknsUreoI81/xF4QR0oVTGWgAYylqDtJTAtgVIG0q8Qcj8Z9SvgFR0i3/mYdqwU700DKY54sR2EsRM+ABTeUD5msVnWl1g8IX8d+GAGiU8CB3dxcs8JXrrKUKBaQ+QeLLXmqa78BP4OHFdo0smvdlkR+0k5x2O2JwD3dXhyrz6ejr4wmEPrsqq4gGw0kAUUcYYUwtfwwuojHCVuuM6QUlNd5nwS68FoBZl7PnD10dSwGi4294AZrsAWLRJw9TFv1XLeB8m5mompxBqvBi6YF5m9lyCggZSguuyY8eqj1NvQyyY4Prt4cn4EeHZiyDO3vrF+S9f2m8D7E+Nsb/ZX4OTuP3rjPBPUGsNoIDVWpW5Nrj7qqE+Oy0M5VzIxlRza6qCsir0S0EAcIEMIxKuP3cCRQxp7blYCY1ch8SrhJuCcTOrCvbEwTsIRNmU8LFNcw1RIQAOpsCgVS3L1UVdxUn/pXwlc3KWS+yGIVE11kVXNRgQ0kI0weVL3q9Inr+oaCqmXoEpN8nHcs4Gf1oVLNbkJaCC5iS43nquP+mp7HXBeJ2uTm9VvAK6PXhp8G/CDTGnFZuY7H5mg1h5GA6m9QnXoi+99eF27jpr0KoasJr4IfCySn+v//9g8NjGyugiqJplArgGULMCGTRD4Q7QBnmOmrpLFN633NXlfBFzVyQ/f4gjf5Bh7DOl/bF+2r4yAk0FlBalUTv8LM3zTod8zqVKpq5QVr0L2ZiIv3rrk9fvun5dkIBV/4yOEcz7JALWlEBa8pWrNo/WrwIe7rj8DXD6PDHvdB4HYRJ6JPt60vdkHgN8Ad4wkehtweoHLYSNl2XxKAhrIlLTb7Kv/lbmvyyNtZrcs1UPuh4zJ/J5tl7/uBF40JqBt2ySggbRZt6lUnxR9t/p3wEun6th+kgj8Y9u2JvdGW4okBdyhUXzDPPw53AM5IFdw47RFQANpq15Tqy25U+vUuaylv+0TfMg7rEw+D1w6AsKe4vZvnY8IbdNWCWggrVZuGt39JZHcbytPo369vew02fc0hnzzI5wbtiLZPk94OXO9Y+v/MtdAHAh7IhB2aQ27tYYj5wtnEp+OwGuAm/fwdNT2l/1Cvc/Y4EmqXwOvnC4Fe6qZgAZSc3Xm1db/ivWt4nnrkKv3+H2NoTHDiiM82XXQ0Iaev2wCGsiy65ua3aeBy7rGYT+jsK+RxzIIxFvS7Cmj3jB2AeEpPA8J7EhAA3Fg7ETgqejXpmNkmWMkbN/+4y61sMr0Sapl1rloVk4ORfE2GTzcNA03zcMRnsI6rsksFC0BCRQnoIEUR9xcBw8Ax3eqjwUeai4DBUtAApMQ0EAmwdxUJ/2ju3vbDqOphBQrAQmUIaCBlOHaatSfAWd14q8Bzm81EXVLQALlCWgg5Rm31EP8qKdjo6XKqVUCMxBwkpgBeqVdXgJc0WkLm+WdUqlOZUlAApUQ0EAqKUQFMsLN8qM7HY6LCgqiBAnUTsCJovYKTaevv3zlzfPpmNuTBJomoIE0Xb6s4vunr/y2Q1asBpPAcgloIMut7ZDMbgDe2DV4y9ametcPaey5EpDAOgloIOus+/asdwNh36NwOCYcExKQwEYEnCw2wrT4k/qdd5/cehLr0MVna4ISkEAWAhpIFozNB+nvf/wSeFXz2ZiABCQwCQENZBLMVXfyc+DVncIDu+8+VC1YcRKQQB0ENJA66jCninDZ6uDuu9l+33rOSti3BBojoIE0VrACcvvLV48CRxWIb0gJSGChBDSQhRZ2w7TCdiV3d+devfXvF2zYztMkIAEJ+MjmysfA7cBpHQN/TKx8MJi+BIYScNIYSmxZ54fvXYcb5+Ex3v2XlZrZSEACpQloIKUJ1x2/v/9xL3By3VJVJwEJ1EZAA6mtItPpeS1wc9fdh4CvTde1PUlAAksgoIEsoYppOdwGnO79jzR4tpKABNz3aM1joN//6ingkDWDMHcJSCCNgCuQNG5LaNXvfxVWImcuISFzkIAEpiWggUzLu6be+hvo7wKurUmYWiQggTYIaCBt1Cm3yu8C7/T+R26sxpPAughoIOuqd5/tA8DxwNPAQetEYNYSkMBYAhrIWIJttu+/f/4n4PltpqBqCUhgbgIayNwVmKf//v7HZ7feQr9sHgn2KgEJtE5AA2m9gsP1f3Jr25JgHOGw/sP52UICEnACWe0YuAs41f2vVlt/E5dANgL+As2GsplA4cXBcOP8/q3tS05sRrVCJSCB6ghoINWVpLig/v7HNcD5xXuzAwlIYLEENJDFlnbHxM4Bbuz+chjwxLrSN1sJSCAnAQ0kJ836Y30HCG+eh1WI3z+vv14qlEDVBDSQqsuTXdxXgI8Az3QfksregQElIIH1ENBA1lPrkKkGsq56m60EihLQQIrirS64BlJdSRQkgXYJaCDt1i5FuQaSQs02EpDAjgQ0kHUNDA1kXfU2WwkUJaCBFMVbXXANpLqSKEgC7RLQQNqtXYpyDSSFmm0kIAEvYTkGfArLMSABCeQj4AokH8sWIrkCaaFKapRAIwQ0kEYKlUmmBpIJpGEkIAG/B7G2MaCBrK3i5iuBggRcgRSEW2FoDaTCoihJAq0S0EBarVyabg0kjZutJCCBHQhoIOsaFpcAVwCPA7vWlbrZSkACuQloILmJ1h3vIuAq4GHg6Lqlqk4CEqidgAZSe4Xy6tNA8vI0mgRWTUADWVf5NZB11dtsJVCUgAZSFG91wTWQ6kqiIAm0S0ADabd2Kco1kBRqtpGABHYkoIGsa2BoIOuqt9lKoCgBDaQo3uqCayDVlURBEmiXgAbSbu1SlGsgKdRsIwEJeAnLMYAG4iCQgASyEXAFkg1lE4E0kCbKpEgJtEFAA2mjTrlU9gbyGHBErqDGkYAE1klAA1lX3Q8HHgH2B04E7l9X+mYrAQnkJKCB5KTZRqwfAucC7wa+3YZkVUpAAjUS0EBqrEpZTRdubaT4pc48gol4SEACEkgioIEkYWu60cuAO7rLV+EylocEJCCBJAIaSBK25hvdDZwCBDP5bfPZmIAEJDALAQ1kFuyzd/oN4H1bH5b6+NaHpa6cXY0CJCCBJgloIE2WbbTo9wJXAzcB54yOZgAJSGCVBDSQVZadU4G7utQdA+scA2YtgdEEnDxGI2w2wC3Amd0KJKxEPCQgAQkMIqCBDMK1qJPDo7zhkd5wDyTcC/GQgAQkMIiABjII16JOPg+4DrgZeN2iMjMZCUhgEgIayCSYq+3kbOBWYHe1ChUmAQlUS0ADqbY0CpOABCRQN4H/AeplhabeoWpuAAAAAElFTkSuQmCC</v>
       </c>
       <c r="Y9" t="str">
-        <v>not interested</v>
+        <v>emfefpwompfweo</v>
       </c>
       <c r="Z9" t="str">
         <v>Admin</v>
       </c>
       <c r="AA9" t="str">
-        <v>2025-07-20</v>
+        <v>2025-07-30</v>
       </c>
     </row>
     <row r="10">
@@ -1196,9 +1196,263 @@
         <v>5567</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>CMP-016</v>
+      </c>
+      <c r="B17" t="str">
+        <v>dfnvntldni</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Stored Component</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2025-07-30</v>
+      </c>
+      <c r="G17" t="str">
+        <v>tgtrf</v>
+      </c>
+      <c r="H17" t="str">
+        <v>dfnvntldni</v>
+      </c>
+      <c r="M17" t="str">
+        <v>uiuh</v>
+      </c>
+      <c r="N17" t="str">
+        <v>1</v>
+      </c>
+      <c r="U17" t="str">
+        <v>Capacitor</v>
+      </c>
+      <c r="AB17" t="str">
+        <v>giugiuh</v>
+      </c>
+      <c r="AC17" t="str">
+        <v>2025-07-30</v>
+      </c>
+      <c r="AD17" t="str">
+        <v>Capacitor</v>
+      </c>
+      <c r="AE17" t="str">
+        <v>ferg</v>
+      </c>
+      <c r="AF17" t="str">
+        <v>drfvgtf</v>
+      </c>
+      <c r="AG17" t="str">
+        <v>50</v>
+      </c>
+      <c r="AH17" t="str">
+        <v>hguygy</v>
+      </c>
+      <c r="AI17" t="str">
+        <v>kkuh</v>
+      </c>
+      <c r="AJ17" t="str">
+        <v/>
+      </c>
+      <c r="AK17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>CMP-017</v>
+      </c>
+      <c r="B18" t="str">
+        <v>dfnvntldni</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Issued Component</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2025-07-30</v>
+      </c>
+      <c r="F18" t="str">
+        <v>kjhihiu</v>
+      </c>
+      <c r="G18" t="str">
+        <v>ugiugiu</v>
+      </c>
+      <c r="H18" t="str">
+        <v>dfnvntldni</v>
+      </c>
+      <c r="I18" t="str">
+        <v>yoyoi</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2025-07-30</v>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v>testing</v>
+      </c>
+      <c r="M18" t="str">
+        <v>hgg</v>
+      </c>
+      <c r="N18" t="str">
+        <v>1</v>
+      </c>
+      <c r="O18" t="str">
+        <v>lkjlkj</v>
+      </c>
+      <c r="P18" t="str">
+        <v>kgiug</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>jhgyg</v>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="str">
+        <v>20</v>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>CMP-018</v>
+      </c>
+      <c r="B19" t="str">
+        <v>5</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Stored Component</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2025-07-30</v>
+      </c>
+      <c r="G19" t="str">
+        <v>4</v>
+      </c>
+      <c r="H19" t="str">
+        <v>5</v>
+      </c>
+      <c r="M19" t="str">
+        <v>9</v>
+      </c>
+      <c r="N19" t="str">
+        <v>1</v>
+      </c>
+      <c r="U19" t="str">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="str">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="str">
+        <v>2025-07-30</v>
+      </c>
+      <c r="AD19" t="str">
+        <v>2</v>
+      </c>
+      <c r="AE19" t="str">
+        <v>3</v>
+      </c>
+      <c r="AF19" t="str">
+        <v>6</v>
+      </c>
+      <c r="AG19" t="str">
+        <v>100</v>
+      </c>
+      <c r="AH19" t="str">
+        <v>7</v>
+      </c>
+      <c r="AI19" t="str">
+        <v>8</v>
+      </c>
+      <c r="AJ19" t="str">
+        <v>2025-07-30</v>
+      </c>
+      <c r="AK19" t="str">
+        <v>2025-07-21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>CMP-019</v>
+      </c>
+      <c r="B20" t="str">
+        <v>5</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Issued Component</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E20" t="str">
+        <v>2025-07-30</v>
+      </c>
+      <c r="F20" t="str">
+        <v>LV</v>
+      </c>
+      <c r="G20" t="str">
+        <v>4</v>
+      </c>
+      <c r="H20" t="str">
+        <v>5</v>
+      </c>
+      <c r="I20" t="str">
+        <v>1</v>
+      </c>
+      <c r="J20" t="str">
+        <v>2025-07-30</v>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v>testing</v>
+      </c>
+      <c r="M20" t="str">
+        <v>LV</v>
+      </c>
+      <c r="N20" t="str">
+        <v>1</v>
+      </c>
+      <c r="O20" t="str">
+        <v>3</v>
+      </c>
+      <c r="P20" t="str">
+        <v>hyd</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>6</v>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v>25</v>
+      </c>
+      <c r="T20" t="str">
+        <v>25</v>
+      </c>
+      <c r="U20" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AK16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AK20"/>
   </ignoredErrors>
 </worksheet>
 </file>